--- a/doc/04_外部設計書_タスク完了画面_CurrentDirectory.xlsx
+++ b/doc/04_外部設計書_タスク完了画面_CurrentDirectory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B434DA7E-EBA9-46D8-A5BD-5CE11426633E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDF624B-7CD9-4144-8650-8E34DFB4C10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="9165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -433,6 +433,10 @@
   </si>
   <si>
     <t>comptask</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>status</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1362,7 +1366,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D73" workbookViewId="0">
-      <selection activeCell="AD85" sqref="AD85"/>
+      <selection activeCell="AA82" sqref="AA82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -4867,7 +4871,7 @@
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
